--- a/public/static/template/zbqk.xlsx
+++ b/public/static/template/zbqk.xlsx
@@ -14,36 +14,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>单位</t>
   </si>
   <si>
-    <t>融资本金</t>
-  </si>
-  <si>
-    <t>融资平均
-成本</t>
-  </si>
-  <si>
-    <t>2.占用产业
-资金</t>
-  </si>
-  <si>
-    <t>A.合计
+    <t>融资本金(外部融资)</t>
+  </si>
+  <si>
+    <t>融资平均成本(外部融资)</t>
+  </si>
+  <si>
+    <t>占用产业资金</t>
+  </si>
+  <si>
+    <t>合计
 投入</t>
   </si>
   <si>
-    <t>B.历年费用</t>
-  </si>
-  <si>
-    <t>1.自有资金</t>
-  </si>
-  <si>
-    <t>2.长期股权投资</t>
-  </si>
-  <si>
-    <t>3.固定资产</t>
+    <t>历年费用
+支出</t>
+  </si>
+  <si>
+    <t>1.自有资金(资产)</t>
+  </si>
+  <si>
+    <t>2.长期股权投资(资产)</t>
+  </si>
+  <si>
+    <t>3.固定资产(资产)</t>
+  </si>
+  <si>
+    <t>小计(资产)</t>
   </si>
   <si>
     <t>账面净资产</t>
@@ -53,6 +55,9 @@
   </si>
   <si>
     <t>城投</t>
+  </si>
+  <si>
+    <t>合计</t>
   </si>
 </sst>
 </file>
@@ -62,9 +67,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -107,6 +112,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -121,8 +140,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +202,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -145,108 +249,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -265,13 +270,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,168 +426,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -468,41 +473,33 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,29 +521,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,157 +542,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,10 +752,28 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,21 +1095,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11.3571428571429" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="15" style="1"/>
-    <col min="3" max="3" width="10.3571428571429" style="1"/>
-    <col min="4" max="9" width="15" style="1"/>
-    <col min="10" max="10" width="14.4642857142857" style="1"/>
+    <col min="2" max="2" width="18" style="1"/>
+    <col min="3" max="3" width="18.4553571428571" style="1" customWidth="1"/>
+    <col min="4" max="10" width="18" style="1"/>
+    <col min="11" max="11" width="17.3571428571429" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="34.8" customHeight="1" spans="1:10">
+    <row r="1" ht="34.8" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1092,46 +1128,111 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="17.4" customHeight="1" spans="1:10">
+    <row r="2" ht="17.4" customHeight="1" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <f>B2+D2</f>
+        <v>0</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="4">
+        <f>E2-F2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <f>G2+H2+I2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="4"/>
     </row>
-    <row r="3" ht="17.4" customHeight="1" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+    <row r="3" ht="17.4" customHeight="1" spans="1:11">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <f>B3+D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="7">
+        <f>E3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <f>G3+H3+I3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="17.4" customHeight="1" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9">
+        <f>B2+B3</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:K4" si="0">D2+D3</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/static/template/zbqk.xlsx
+++ b/public/static/template/zbqk.xlsx
@@ -66,9 +66,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -112,7 +112,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,8 +125,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +153,21 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,17 +180,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,24 +201,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,7 +225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,46 +233,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,13 +270,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,25 +408,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,133 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,8 +489,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,26 +545,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,179 +583,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3571428571429" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="3"/>
@@ -1186,10 +1186,7 @@
         <f>E3-F3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="7">
-        <f>G3+H3+I3</f>
-        <v>0</v>
-      </c>
+      <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="17.4" customHeight="1" spans="1:11">
